--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1977676.720530832</v>
+        <v>1975132.91102375</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.62903715749003</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.6326967715751</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3170492634406</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>37.34724819842837</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>60.96760033386582</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.64107630343887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.8563301598672</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.6918648193995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>67.09881849679842</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465054</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>33.81841790835446</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.8244010340094</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.868631290865</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614511</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115252</v>
+        <v>20.24979976115246</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256348</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>119.6981910140058</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>20.53952247906581</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.0585636675402</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520993</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>237.789722109268</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756226</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184408</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703329</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057027</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428708</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.733006062639</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="C2" t="n">
-        <v>419.733006062639</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="D2" t="n">
-        <v>419.733006062639</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="E2" t="n">
-        <v>419.733006062639</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="F2" t="n">
-        <v>153.355349495461</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298169</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298169</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.733006062639</v>
+        <v>423.8554133656001</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.5183722823837</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>227.0369405499142</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>227.0369405499142</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.5183722823837</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968609</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>308.3243389909741</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>41.94668242379612</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388465</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356494</v>
+        <v>300.438579740743</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515901</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.59818340306</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991314</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388465</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388465</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388465</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.322152659818</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006024</v>
+        <v>474.2580350095596</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006024</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>847.0040198004915</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>669.537489679886</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>987.0789356658244</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>732.3944474599375</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>466.0167908927597</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>466.0167908927597</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.7850908643995</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>69.82257392398776</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>69.82257392398776</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398776</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478429</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068555</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068555</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607407</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045901</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209579</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940589</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550191</v>
+        <v>2359.356530550193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661156</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342775</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2526.402742253528</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="T8" t="n">
-        <v>2526.402742253528</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.821563779098</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.758676435527</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="W8" t="n">
-        <v>1588.990021165413</v>
+        <v>1874.309276588289</v>
       </c>
       <c r="X8" t="n">
-        <v>1215.524262904333</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.3849309285213</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010723</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199453</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.122281858694</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4878,55 +4878,55 @@
         <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637182</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148168</v>
+        <v>559.9063389572701</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996535</v>
+        <v>854.4423223907509</v>
       </c>
       <c r="M9" t="n">
-        <v>1294.891505973954</v>
+        <v>1217.508790865052</v>
       </c>
       <c r="N9" t="n">
-        <v>1681.975908446522</v>
+        <v>1851.248074049889</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359406</v>
+        <v>2183.134884037278</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.34536178903</v>
+        <v>2430.170242466902</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342775</v>
+        <v>2545.387641020646</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342775</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251693</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685342</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751571</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519829</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791627</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586094</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.72505782114</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2112552068555</v>
+        <v>367.0373856326728</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2112552068555</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2112552068555</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2112552068555</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380106</v>
+        <v>76.63468308380124</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676559</v>
+        <v>248.2500215676563</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368907</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904017</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.861881826848</v>
+        <v>1113.534501108857</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.74350832149</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0590201156033</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6418500786426</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6522991806253</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8597200370952</v>
+        <v>548.6858504629125</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>545.3854261579706</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>397.4723325755775</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524076</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662387</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.50206557031</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>695.50206557031</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579743</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7035232280589</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,16 +6461,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003833</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,25 +6938,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7157,37 +7157,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,7 +7491,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
         <v>506.2737913123336</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400776</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121707</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121707</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121707</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121707</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814783021</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038407</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797808</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832669</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510515</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854712</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648825</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611865</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138474</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703173</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7628,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400767</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121698</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121698</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121698</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121698</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270497</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,49 +7807,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038399</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797799</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854712</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648825</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611864</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138465</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703164</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594547</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127214</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8532,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084407</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538069</v>
       </c>
       <c r="O9" t="n">
-        <v>186.3103888136325</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348534</v>
+        <v>36.31458639917332</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435539105</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>48.39475227997616</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516657</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472509</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012544</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.773416514394</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392193592</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333447</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392193681</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830042</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580768</v>
+        <v>390680.0076580775</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606954</v>
+        <v>507909.2320606945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101716</v>
+        <v>95270.23779101728</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954696</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716752</v>
+        <v>135650.8557716749</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744388</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744388</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756788</v>
+        <v>92902.86757567886</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416055.1119328498</v>
+        <v>-416055.11193285</v>
       </c>
       <c r="C6" t="n">
-        <v>264032.8686583434</v>
+        <v>264032.8686583436</v>
       </c>
       <c r="D6" t="n">
-        <v>-44504.49210043211</v>
+        <v>-44504.49210043286</v>
       </c>
       <c r="E6" t="n">
-        <v>-52756.3984933423</v>
+        <v>-52791.13641877693</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.833567353</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="G6" t="n">
-        <v>455152.833567353</v>
+        <v>455118.0956419172</v>
       </c>
       <c r="H6" t="n">
-        <v>455152.8335673529</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="I6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419177</v>
       </c>
       <c r="J6" t="n">
-        <v>386153.6791482387</v>
+        <v>386118.9412228033</v>
       </c>
       <c r="K6" t="n">
-        <v>455152.833567353</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="L6" t="n">
-        <v>359882.5957763358</v>
+        <v>359847.8578509004</v>
       </c>
       <c r="M6" t="n">
-        <v>322434.8578718837</v>
+        <v>322400.1199464481</v>
       </c>
       <c r="N6" t="n">
-        <v>455152.8335673529</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="O6" t="n">
-        <v>455152.8335673529</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="P6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419174</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562781</v>
+        <v>933.7024595627818</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856937</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933027</v>
+        <v>319.6474457933034</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788928</v>
+        <v>434.273040778892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.7138800015063</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>376.4268100841882</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.5675980139538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>376.4268100841877</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.5675980139547</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015064</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.5675980139538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.5675980139538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.20513748822</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11956169855978</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>63.39144972487516</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168.335447578876</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>225.2910301688117</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>205.0685790855983</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001052421</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.9908309579049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>219.1598120058791</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465065</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>89.66699922648635</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.9066996444596</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164535961</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164539144</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28029,7 +28029,7 @@
         <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>101.053297496333</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.6876672912386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-2.383967682258759e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.455452754725511e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>5.607064728227951e-12</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885549</v>
+        <v>3.753577726885552</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.44132789546667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972526</v>
+        <v>318.5802175972529</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776318</v>
+        <v>477.4691627763184</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354917</v>
+        <v>592.3427171354923</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359926</v>
+        <v>659.0954050359932</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525063</v>
+        <v>669.7602577525068</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230788</v>
+        <v>632.4356192307886</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983009</v>
+        <v>539.7691690983014</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542121</v>
+        <v>405.3441667542124</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864746</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140453</v>
+        <v>85.5346524514046</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508438</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436925</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026256</v>
+        <v>69.14683309026262</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079421</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502161</v>
+        <v>324.3030514502164</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571271</v>
+        <v>436.0654741571275</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617156</v>
+        <v>508.867840461716</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152203</v>
+        <v>522.3360580152207</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519073</v>
+        <v>477.8354464519078</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947581</v>
+        <v>383.5050724947585</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463696</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366391</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133919</v>
+        <v>8.095024154133926</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415869</v>
+        <v>50.63422518415873</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772514</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490118</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102312</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462344</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004625</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939799</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307398</v>
+        <v>75.70643221307405</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658771</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942736</v>
+        <v>7.194100917942742</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650315</v>
+        <v>0.09183958618650322</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>216.857296338707</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,25 +33737,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>555.1777416630679</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877685</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705663</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313375</v>
+        <v>257.3793117313379</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655045</v>
+        <v>356.5763021655051</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087199</v>
+        <v>428.7491718087205</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559154</v>
+        <v>440.3471941559159</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091013</v>
+        <v>402.3374078091018</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430314</v>
+        <v>308.5361733430319</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797626</v>
+        <v>183.038476879763</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234244</v>
+        <v>20.20013907234264</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127545</v>
+        <v>62.90656844127562</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758571</v>
+        <v>450.926849488436</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1406900856937</v>
+        <v>297.5110943772534</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396972</v>
+        <v>366.7338065396977</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931887</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="O9" t="n">
-        <v>521.5495908210954</v>
+        <v>335.2392020074633</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804279</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603481</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.32840335568808</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787329</v>
+        <v>25.68023017873301</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009328</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641526</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425463</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186646</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228553</v>
+        <v>54.82702814228567</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191305</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.01966967204032</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096336</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>416.6233618831937</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295981</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38175,7 +38175,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096406</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
         <v>394.3420143191314</v>
